--- a/UNAM/Enero/Reuniones/Sabado 18 enero/Asistentes_Reunión_18012020.xlsx
+++ b/UNAM/Enero/Reuniones/Sabado 18 enero/Asistentes_Reunión_18012020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/outlier/CDM Dropbox/Daniela Arenas/AppCogDia - Consultorías/UNAM-SEP/2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A62C3EE-3079-384F-A2D5-A5795C2BC235}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7184BA5D-F801-A34B-8530-F9B821500F90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{46F0CA5D-7F53-3843-8BB3-1C0E194EDEA7}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>Reunión Coordinación Campo y Sistema</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Coordinador Nacional de Sistema Informático</t>
+  </si>
+  <si>
+    <t>Dra. Rodríguez</t>
   </si>
 </sst>
 </file>
@@ -456,7 +459,7 @@
   <dimension ref="A2:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -571,7 +574,9 @@
       <c r="A13">
         <v>9</v>
       </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C13" s="1" t="s">
         <v>18</v>
       </c>
